--- a/CashFlow/EMR_cashflow.xlsx
+++ b/CashFlow/EMR_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8101000000.0</v>
+        <v>124000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>8152000000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6354000000.0</v>
+        <v>-88000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4240000000.0</v>
+        <v>-98000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2147000000.0</v>
+        <v>-84000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-87000000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>6356000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-196000000.0</v>
+        <v>6311000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-346000000.0</v>
+        <v>4689000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-73000000.0</v>
+        <v>3387000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>1835000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>10000000.0</v>
